--- a/VT_Model_ALL_V01.xlsx
+++ b/VT_Model_ALL_V01.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045" tabRatio="901" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12045" tabRatio="901" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -820,7 +820,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="120">
   <si>
     <t>~FI_Comm</t>
   </si>
@@ -1041,9 +1041,6 @@
     <t>Output Commodity</t>
   </si>
   <si>
-    <t>Extraction or Import cost</t>
-  </si>
-  <si>
     <t>Annual Activity Bound</t>
   </si>
   <si>
@@ -1174,6 +1171,15 @@
   </si>
   <si>
     <t>Capacity [GW]</t>
+  </si>
+  <si>
+    <t>COAL_MINE</t>
+  </si>
+  <si>
+    <t>Kopalnia</t>
+  </si>
+  <si>
+    <t>Extraction or Import cost [zł/PJ]</t>
   </si>
 </sst>
 </file>
@@ -3533,7 +3539,7 @@
       <c r="I3" s="103"/>
       <c r="J3" s="104"/>
       <c r="K3" s="112" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17.45" customHeight="1">
@@ -3615,17 +3621,17 @@
         <v>9</v>
       </c>
       <c r="C7" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="E7" s="115" t="s">
         <v>105</v>
-      </c>
-      <c r="E7" s="115" t="s">
-        <v>106</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H7" s="38"/>
       <c r="I7" s="38"/>
@@ -3638,13 +3644,13 @@
         <v>9</v>
       </c>
       <c r="C8" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="39" t="s">
-        <v>113</v>
-      </c>
       <c r="E8" s="116" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
@@ -3708,7 +3714,7 @@
     <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="B15" s="111" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="111"/>
     </row>
@@ -3770,7 +3776,7 @@
   <dimension ref="A2:J24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3872,27 +3878,31 @@
       </c>
       <c r="C7" s="36"/>
       <c r="D7" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="115" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="115" t="s">
+      <c r="F7" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="35" t="s">
+      <c r="H7" s="35" t="s">
         <v>110</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>111</v>
       </c>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B8" s="39"/>
+      <c r="B8" s="39" t="s">
+        <v>49</v>
+      </c>
       <c r="C8" s="40"/>
-      <c r="D8" s="39"/>
+      <c r="D8" s="39" t="s">
+        <v>117</v>
+      </c>
       <c r="E8" s="41"/>
       <c r="F8" s="42"/>
       <c r="G8" s="42"/>
@@ -4041,9 +4051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4141,7 +4149,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>23</v>
@@ -4176,10 +4184,10 @@
         <v>72</v>
       </c>
       <c r="E6" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="29" t="s">
         <v>73</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>74</v>
       </c>
       <c r="G6" s="14"/>
       <c r="K6" s="5"/>
@@ -4194,11 +4202,21 @@
       <c r="T6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="17">
+        <v>11</v>
+      </c>
+      <c r="F7" s="16">
+        <v>500</v>
+      </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
       <c r="B8" s="20"/>
@@ -4262,7 +4280,7 @@
   <sheetData>
     <row r="2" spans="2:14" ht="18">
       <c r="B2" s="94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
@@ -4300,31 +4318,31 @@
         <v>13</v>
       </c>
       <c r="C5" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="82" t="s">
         <v>82</v>
-      </c>
-      <c r="D5" s="82" t="s">
-        <v>83</v>
       </c>
       <c r="E5" s="82" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="84" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="84" t="s">
+      <c r="J5" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="84" t="s">
+      <c r="K5" s="84" t="s">
         <v>88</v>
-      </c>
-      <c r="K5" s="84" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="39" thickBot="1">
@@ -4335,28 +4353,28 @@
         <v>55</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>72</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G6" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="I6" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="85" t="s">
-        <v>94</v>
-      </c>
       <c r="J6" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="85" t="s">
         <v>115</v>
-      </c>
-      <c r="K6" s="85" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="2:14">
@@ -4369,10 +4387,10 @@
         <v>Elektrownia Rybnik</v>
       </c>
       <c r="D7" s="86" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E7" s="86" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F7" s="87">
         <v>3</v>
@@ -4422,8 +4440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4433,7 +4451,7 @@
   <sheetData>
     <row r="2" spans="2:11" ht="18">
       <c r="B2" s="94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
@@ -4470,31 +4488,31 @@
         <v>13</v>
       </c>
       <c r="C5" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="82" t="s">
         <v>82</v>
-      </c>
-      <c r="D5" s="82" t="s">
-        <v>83</v>
       </c>
       <c r="E5" s="82" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="84" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="84" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="84" t="s">
+      <c r="J5" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="84" t="s">
+      <c r="K5" s="84" t="s">
         <v>88</v>
-      </c>
-      <c r="K5" s="84" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="39" thickBot="1">
@@ -4505,28 +4523,28 @@
         <v>55</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="29" t="s">
         <v>72</v>
       </c>
       <c r="F6" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="85" t="s">
+      <c r="H6" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="I6" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="85" t="s">
+      <c r="J6" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="J6" s="85" t="s">
+      <c r="K6" s="85" t="s">
         <v>95</v>
-      </c>
-      <c r="K6" s="85" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -4555,7 +4573,7 @@
     </row>
     <row r="10" spans="2:11" ht="18">
       <c r="B10" s="94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="56"/>
       <c r="D10" s="56"/>
@@ -4566,7 +4584,7 @@
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -4585,7 +4603,7 @@
     </row>
     <row r="14" spans="2:11" ht="39" thickBot="1">
       <c r="B14" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" s="113" t="s">
         <v>33</v>
@@ -4635,7 +4653,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="15">
       <c r="B2" s="56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
@@ -4652,7 +4670,7 @@
     <row r="4" spans="2:10">
       <c r="B4" s="60"/>
       <c r="C4" s="61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="59"/>
       <c r="E4" s="59"/>
@@ -4668,13 +4686,13 @@
       <c r="E5" s="62"/>
       <c r="F5" s="62"/>
       <c r="H5" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="J5" s="55" t="s">
         <v>78</v>
-      </c>
-      <c r="J5" s="55" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="39" thickBot="1">
@@ -4682,10 +4700,10 @@
         <v>71</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="114" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="114"/>
       <c r="F6" s="114"/>
